--- a/Data_preparation/datasets/final_data/FRESHWORKS_INC_CL_A.xlsx
+++ b/Data_preparation/datasets/final_data/FRESHWORKS_INC_CL_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,66 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -712,22 +652,22 @@
         <v>43830</v>
       </c>
       <c r="D2">
-        <v>74.30999755859375</v>
+        <v>43.25</v>
       </c>
       <c r="E2">
-        <v>78.51000213623047</v>
+        <v>42.68999862670898</v>
       </c>
       <c r="F2">
-        <v>80.26000213623047</v>
+        <v>49.25</v>
       </c>
       <c r="G2">
-        <v>70.55000305175781</v>
+        <v>40.05099868774414</v>
       </c>
       <c r="H2">
-        <v>201104117</v>
+        <v>237933261</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-222862000</v>
@@ -753,22 +693,22 @@
         <v>44104</v>
       </c>
       <c r="D3">
-        <v>142.1999969482422</v>
+        <v>43.25</v>
       </c>
       <c r="E3">
-        <v>135.75</v>
+        <v>42.68999862670898</v>
       </c>
       <c r="F3">
-        <v>158.7359924316406</v>
+        <v>49.25</v>
       </c>
       <c r="G3">
-        <v>133.8099975585938</v>
+        <v>40.05099868774414</v>
       </c>
       <c r="H3">
-        <v>158300823</v>
+        <v>237933261</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>66187000</v>
@@ -830,22 +770,22 @@
         <v>44196</v>
       </c>
       <c r="D4">
-        <v>29.91399955749512</v>
+        <v>43.25</v>
       </c>
       <c r="E4">
-        <v>28.95000076293945</v>
+        <v>42.68999862670898</v>
       </c>
       <c r="F4">
-        <v>31.0620002746582</v>
+        <v>49.25</v>
       </c>
       <c r="G4">
-        <v>27.46199989318848</v>
+        <v>40.05099868774414</v>
       </c>
       <c r="H4">
-        <v>766266033</v>
+        <v>237933261</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-238115000</v>
@@ -916,22 +856,22 @@
         <v>44286</v>
       </c>
       <c r="D5">
-        <v>529.9299926757812</v>
+        <v>43.25</v>
       </c>
       <c r="E5">
-        <v>513.469970703125</v>
+        <v>42.68999862670898</v>
       </c>
       <c r="F5">
-        <v>563.5599975585938</v>
+        <v>49.25</v>
       </c>
       <c r="G5">
-        <v>499</v>
+        <v>40.05099868774414</v>
       </c>
       <c r="H5">
-        <v>424926346</v>
+        <v>237933261</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>80587000</v>
@@ -993,22 +933,22 @@
         <v>44377</v>
       </c>
       <c r="D6">
-        <v>46.47724219552952</v>
+        <v>43.25</v>
       </c>
       <c r="E6">
-        <v>48.50979995727539</v>
+        <v>42.68999862670898</v>
       </c>
       <c r="F6">
-        <v>48.75511095753174</v>
+        <v>49.25</v>
       </c>
       <c r="G6">
-        <v>45.85521015250949</v>
+        <v>40.05099868774414</v>
       </c>
       <c r="H6">
-        <v>3953196953</v>
+        <v>237933261</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-240617000</v>
@@ -1085,22 +1025,22 @@
         <v>44469</v>
       </c>
       <c r="D7">
-        <v>138.916410444292</v>
+        <v>42.7400016784668</v>
       </c>
       <c r="E7">
-        <v>146.6503143310547</v>
+        <v>50.25</v>
       </c>
       <c r="F7">
-        <v>149.9494520691154</v>
+        <v>50.63000106811523</v>
       </c>
       <c r="G7">
-        <v>135.3627448332334</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>14840390000</v>
+        <v>237933261</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>12014383308</v>
@@ -1198,22 +1138,22 @@
         <v>44561</v>
       </c>
       <c r="D8">
-        <v>17.05999946594238</v>
+        <v>26.39999961853028</v>
       </c>
       <c r="E8">
-        <v>15.57999992370606</v>
+        <v>21.75</v>
       </c>
       <c r="F8">
-        <v>19.65999984741211</v>
+        <v>26.80999946594238</v>
       </c>
       <c r="G8">
-        <v>13.14000034332275</v>
+        <v>18.52000045776367</v>
       </c>
       <c r="H8">
-        <v>250599325</v>
+        <v>237933261</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>6909712657</v>
@@ -1311,22 +1251,22 @@
         <v>44651</v>
       </c>
       <c r="D9">
-        <v>151.2200012207031</v>
+        <v>18.21999931335449</v>
       </c>
       <c r="E9">
-        <v>119.3099975585938</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F9">
-        <v>161.6100006103516</v>
+        <v>20.26000022888184</v>
       </c>
       <c r="G9">
-        <v>118.879997253418</v>
+        <v>15.76000022888184</v>
       </c>
       <c r="H9">
-        <v>168459019</v>
+        <v>237933261</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>5065026122</v>
@@ -1427,22 +1367,22 @@
         <v>44742</v>
       </c>
       <c r="D10">
-        <v>3.200000047683716</v>
+        <v>13.19999980926514</v>
       </c>
       <c r="E10">
-        <v>3.930000066757202</v>
+        <v>13.10999965667725</v>
       </c>
       <c r="F10">
-        <v>4.539999961853027</v>
+        <v>16.07999992370605</v>
       </c>
       <c r="G10">
-        <v>3.109999895095825</v>
+        <v>11.47000026702881</v>
       </c>
       <c r="H10">
-        <v>448228270</v>
+        <v>237933261</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>3736852608</v>
@@ -1543,22 +1483,22 @@
         <v>44834</v>
       </c>
       <c r="D11">
-        <v>254.5</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="E11">
-        <v>227.5399932861328</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="F11">
-        <v>257.5</v>
+        <v>15.09000015258789</v>
       </c>
       <c r="G11">
-        <v>198.5899963378907</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="H11">
-        <v>3325150886</v>
+        <v>237933261</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>3713201961</v>
@@ -1659,22 +1599,22 @@
         <v>44926</v>
       </c>
       <c r="D12">
-        <v>26.71999931335449</v>
+        <v>15.07999992370606</v>
       </c>
       <c r="E12">
-        <v>28.72999954223633</v>
+        <v>16.18000030517578</v>
       </c>
       <c r="F12">
-        <v>29.72999954223633</v>
+        <v>16.92499923706055</v>
       </c>
       <c r="G12">
-        <v>26.64999961853028</v>
+        <v>13.84000015258789</v>
       </c>
       <c r="H12">
-        <v>178998669</v>
+        <v>237933261</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>4235256864</v>
@@ -1775,22 +1715,22 @@
         <v>45016</v>
       </c>
       <c r="D13">
-        <v>261.1884929516806</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>225.4617156982422</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="F13">
-        <v>262.5264343168398</v>
+        <v>15.34500026702881</v>
       </c>
       <c r="G13">
-        <v>223.9783523558658</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="H13">
-        <v>60498713</v>
+        <v>237933261</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>4457977912</v>
@@ -1891,22 +1831,22 @@
         <v>45107</v>
       </c>
       <c r="D14">
-        <v>18.42000007629395</v>
+        <v>17.35000038146973</v>
       </c>
       <c r="E14">
-        <v>19.04000091552734</v>
+        <v>18.65999984741211</v>
       </c>
       <c r="F14">
-        <v>19.38999938964844</v>
+        <v>18.70999908447266</v>
       </c>
       <c r="G14">
-        <v>17.57999992370605</v>
+        <v>15.82499980926514</v>
       </c>
       <c r="H14">
-        <v>260676335</v>
+        <v>237933261</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>5118286715</v>
@@ -2007,22 +1947,22 @@
         <v>45199</v>
       </c>
       <c r="D15">
-        <v>62.6169871617784</v>
+        <v>19.92000007629395</v>
       </c>
       <c r="E15">
-        <v>64.67326354980469</v>
+        <v>17.94000053405762</v>
       </c>
       <c r="F15">
-        <v>66.63478202323152</v>
+        <v>20.06999969482422</v>
       </c>
       <c r="G15">
-        <v>60.75970456328059</v>
+        <v>17.28499984741211</v>
       </c>
       <c r="H15">
-        <v>212968277</v>
+        <v>237933261</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>5847850915</v>
@@ -2123,22 +2063,22 @@
         <v>45291</v>
       </c>
       <c r="D16">
-        <v>1152.400024414062</v>
+        <v>23.11400032043457</v>
       </c>
       <c r="E16">
-        <v>1198.829956054688</v>
+        <v>22.20000076293945</v>
       </c>
       <c r="F16">
-        <v>1307.140014648438</v>
+        <v>23.93000030517578</v>
       </c>
       <c r="G16">
-        <v>1113.18994140625</v>
+        <v>21.01499938964844</v>
       </c>
       <c r="H16">
-        <v>24003656</v>
+        <v>237933261</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>6936346996</v>
@@ -2239,22 +2179,22 @@
         <v>45382</v>
       </c>
       <c r="D17">
-        <v>104.6600036621094</v>
+        <v>18.20000076293945</v>
       </c>
       <c r="E17">
-        <v>92.98000335693359</v>
+        <v>17.85000038146973</v>
       </c>
       <c r="F17">
-        <v>105.0100021362305</v>
+        <v>18.92000007629395</v>
       </c>
       <c r="G17">
-        <v>90.66999816894533</v>
+        <v>16.86000061035156</v>
       </c>
       <c r="H17">
-        <v>168459019</v>
+        <v>237933261</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>5425438124</v>
@@ -2355,22 +2295,22 @@
         <v>45473</v>
       </c>
       <c r="D18">
-        <v>53.97000122070312</v>
+        <v>12.73999977111816</v>
       </c>
       <c r="E18">
-        <v>52.63999938964844</v>
+        <v>12.5</v>
       </c>
       <c r="F18">
-        <v>65.87999725341797</v>
+        <v>13.80000019073486</v>
       </c>
       <c r="G18">
-        <v>50.29000091552734</v>
+        <v>12.17500019073486</v>
       </c>
       <c r="H18">
-        <v>42689006</v>
+        <v>237933261</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>3792026434</v>
@@ -2471,22 +2411,22 @@
         <v>45565</v>
       </c>
       <c r="D19">
-        <v>36.50313191135645</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="E19">
-        <v>39.63111877441406</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="F19">
-        <v>41.15769383693995</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>34.26814654717644</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="H19">
-        <v>171080665</v>
+        <v>237933261</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>3468002430</v>
@@ -2587,22 +2527,22 @@
         <v>45657</v>
       </c>
       <c r="D20">
-        <v>12.96000003814697</v>
+        <v>16.3799991607666</v>
       </c>
       <c r="E20">
-        <v>14.22000026702881</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="F20">
-        <v>15.34500026702881</v>
+        <v>19.77000045776367</v>
       </c>
       <c r="G20">
-        <v>12.61999988555908</v>
+        <v>15.28499984741211</v>
       </c>
       <c r="H20">
-        <v>453568899</v>
+        <v>237933261</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>4897157200</v>
@@ -2703,22 +2643,22 @@
         <v>45747</v>
       </c>
       <c r="D21">
-        <v>187.8600006103516</v>
+        <v>14.09000015258789</v>
       </c>
       <c r="E21">
-        <v>184.4199981689453</v>
+        <v>14.77000045776367</v>
       </c>
       <c r="F21">
-        <v>198.3399963378907</v>
+        <v>15.09000015258789</v>
       </c>
       <c r="G21">
-        <v>161.3800048828125</v>
+        <v>11.36999988555908</v>
       </c>
       <c r="H21">
-        <v>10664912097</v>
+        <v>237933261</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>4254615673</v>
@@ -2819,22 +2759,22 @@
         <v>45838</v>
       </c>
       <c r="D22">
-        <v>105.0804770925983</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="E22">
-        <v>103.1780242919922</v>
+        <v>12.98999977111816</v>
       </c>
       <c r="F22">
-        <v>109.3114367486601</v>
+        <v>15.47000026702881</v>
       </c>
       <c r="G22">
-        <v>101.4440230697358</v>
+        <v>12.92500019073486</v>
       </c>
       <c r="H22">
-        <v>199618386</v>
+        <v>237933261</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>4398639998</v>
